--- a/TestData/QualitativeFactor.xlsx
+++ b/TestData/QualitativeFactor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>login</t>
   </si>
   <si>
-    <t>Stan.Smith/welcome*12</t>
-  </si>
-  <si>
     <t>loginuser</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>ie</t>
+  </si>
+  <si>
+    <t>RSKHolly.Hall/welcome*12</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -668,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -728,7 +728,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,10 +836,10 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,13 +889,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,10 +903,10 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
         <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,10 +914,10 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -926,13 +926,13 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -940,10 +940,10 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
         <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -1008,13 +1008,13 @@
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>35</v>
@@ -1023,13 +1023,13 @@
         <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1037,22 +1037,22 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
         <v>37</v>
@@ -1061,13 +1061,13 @@
         <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1075,22 +1075,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1101,25 +1101,25 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
